--- a/IV_Array/PurchasingList.xlsx
+++ b/IV_Array/PurchasingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\college\UROP_S2022\IV_Array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D594E300-A68B-47E5-B0E2-683170ED60ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8343AC-7B85-48D2-884C-302FE7475599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="224">
   <si>
     <t>Comment</t>
   </si>
@@ -645,9 +645,6 @@
     <t>560020-0620</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Additional</t>
   </si>
   <si>
@@ -691,6 +688,15 @@
   </si>
   <si>
     <t>RT0805BRE0710KL</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>PRT-00116</t>
+  </si>
+  <si>
+    <t>jumper</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1214,6 +1220,9 @@
       <c r="K2">
         <v>100</v>
       </c>
+      <c r="L2" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
@@ -1245,6 +1254,9 @@
       <c r="K3">
         <v>30</v>
       </c>
+      <c r="L3" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
@@ -1276,6 +1288,9 @@
       <c r="K4">
         <v>10</v>
       </c>
+      <c r="L4" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
@@ -1307,6 +1322,9 @@
       <c r="K5">
         <v>10</v>
       </c>
+      <c r="L5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
@@ -1338,6 +1356,9 @@
       <c r="K6">
         <v>10</v>
       </c>
+      <c r="L6" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
@@ -1369,6 +1390,9 @@
       <c r="K7">
         <v>10</v>
       </c>
+      <c r="L7" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
@@ -1400,6 +1424,9 @@
       <c r="K8">
         <v>15</v>
       </c>
+      <c r="L8" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
@@ -1482,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1540,6 +1567,9 @@
       <c r="K13">
         <v>10</v>
       </c>
+      <c r="L13" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
@@ -1571,6 +1601,9 @@
       <c r="K14">
         <v>10</v>
       </c>
+      <c r="L14" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
@@ -1594,13 +1627,16 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>184</v>
       </c>
       <c r="K15">
         <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1625,7 +1661,7 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>184</v>
@@ -1633,8 +1669,11 @@
       <c r="K16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
@@ -1660,7 +1699,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
@@ -1686,7 +1725,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
@@ -1714,7 +1753,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -1742,7 +1781,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
@@ -1767,7 +1806,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
@@ -1789,7 +1828,7 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>184</v>
@@ -1797,8 +1836,11 @@
       <c r="K22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>93</v>
       </c>
@@ -1820,7 +1862,7 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>184</v>
@@ -1828,8 +1870,11 @@
       <c r="K23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>98</v>
       </c>
@@ -1851,7 +1896,7 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>184</v>
@@ -1859,8 +1904,11 @@
       <c r="K24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>102</v>
       </c>
@@ -1882,7 +1930,7 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>184</v>
@@ -1890,8 +1938,11 @@
       <c r="K25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>106</v>
       </c>
@@ -1923,8 +1974,11 @@
       <c r="K26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
         <v>112</v>
       </c>
@@ -1946,7 +2000,7 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>184</v>
@@ -1954,8 +2008,11 @@
       <c r="K27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
         <v>116</v>
       </c>
@@ -1977,7 +2034,7 @@
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>184</v>
@@ -1985,8 +2042,11 @@
       <c r="K28">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
         <v>120</v>
       </c>
@@ -2008,7 +2068,7 @@
       </c>
       <c r="H29" s="3"/>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>184</v>
@@ -2016,8 +2076,11 @@
       <c r="K29">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>123</v>
       </c>
@@ -2039,7 +2102,7 @@
       </c>
       <c r="H30" s="3"/>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>184</v>
@@ -2047,8 +2110,11 @@
       <c r="K30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>128</v>
       </c>
@@ -2078,8 +2144,11 @@
       <c r="K31">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>132</v>
       </c>
@@ -2109,8 +2178,11 @@
       <c r="K32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
         <v>137</v>
       </c>
@@ -2140,8 +2212,11 @@
       <c r="K33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
         <v>142</v>
       </c>
@@ -2163,7 +2238,7 @@
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>184</v>
@@ -2171,8 +2246,11 @@
       <c r="K34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
         <v>147</v>
       </c>
@@ -2202,8 +2280,11 @@
       <c r="K35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
         <v>152</v>
       </c>
@@ -2225,7 +2306,7 @@
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>184</v>
@@ -2233,8 +2314,11 @@
       <c r="K36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
         <v>157</v>
       </c>
@@ -2264,8 +2348,11 @@
       <c r="K37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
         <v>162</v>
       </c>
@@ -2295,8 +2382,11 @@
       <c r="K38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="16.2" thickBot="1">
+      <c r="L38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.2" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>167</v>
       </c>
@@ -2318,7 +2408,7 @@
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>184</v>
@@ -2326,8 +2416,11 @@
       <c r="K39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
         <v>172</v>
       </c>
@@ -2357,8 +2450,11 @@
       <c r="K40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
         <v>177</v>
       </c>
@@ -2383,20 +2479,54 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="I45" s="7" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="I45" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>184</v>
       </c>
       <c r="K45">
         <v>3</v>
+      </c>
+      <c r="L45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="I46" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J46" t="s">
+        <v>184</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="H47" t="s">
+        <v>223</v>
+      </c>
+      <c r="I47" s="12">
+        <v>60900213421</v>
+      </c>
+      <c r="J47" t="s">
+        <v>184</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
